--- a/dcd_compsr_offset_aging_she_tmi_fresh_tsmc2p_meas.xlsx
+++ b/dcd_compsr_offset_aging_she_tmi_fresh_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="81">
   <si>
     <t>Process</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>tsmc2p (6)</t>
-  </si>
-  <si>
-    <t>error</t>
   </si>
   <si>
     <t>tsmc2p (7)</t>
@@ -266,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,26 +279,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000 "/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,10 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,16 +736,16 @@
         <v>38</v>
       </c>
       <c r="T2">
-        <v>413.217</v>
+        <v>412.507</v>
       </c>
       <c r="U2">
-        <v>0.71684</v>
+        <v>0.00731984</v>
       </c>
       <c r="V2">
-        <v>29.5961</v>
+        <v>39.6654</v>
       </c>
       <c r="W2">
-        <v>35.8724</v>
+        <v>47.1005</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -824,16 +807,16 @@
         <v>38</v>
       </c>
       <c r="T3">
-        <v>413.217</v>
+        <v>412.507</v>
       </c>
       <c r="U3">
-        <v>0.71684</v>
+        <v>0.00731984</v>
       </c>
       <c r="V3">
-        <v>29.5961</v>
+        <v>39.6654</v>
       </c>
       <c r="W3">
-        <v>35.8724</v>
+        <v>47.1005</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -895,16 +878,16 @@
         <v>38</v>
       </c>
       <c r="T4">
-        <v>413.217</v>
+        <v>412.659</v>
       </c>
       <c r="U4">
-        <v>0.716761</v>
+        <v>0.158562</v>
       </c>
       <c r="V4">
-        <v>29.1532</v>
+        <v>30.8655</v>
       </c>
       <c r="W4">
-        <v>35.1</v>
+        <v>36.8308</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -966,16 +949,16 @@
         <v>38</v>
       </c>
       <c r="T5">
-        <v>413.217</v>
+        <v>412.659</v>
       </c>
       <c r="U5">
-        <v>0.716761</v>
+        <v>0.158562</v>
       </c>
       <c r="V5">
-        <v>29.1532</v>
+        <v>30.8655</v>
       </c>
       <c r="W5">
-        <v>35.1</v>
+        <v>36.8308</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1037,16 +1020,16 @@
         <v>52</v>
       </c>
       <c r="T6">
-        <v>338.731</v>
+        <v>337.714</v>
       </c>
       <c r="U6">
-        <v>1.23051</v>
+        <v>0.214148</v>
       </c>
       <c r="V6">
-        <v>79.96899999999999</v>
+        <v>69.8377</v>
       </c>
       <c r="W6">
-        <v>95.5291</v>
+        <v>84.35769999999999</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1108,16 +1091,16 @@
         <v>52</v>
       </c>
       <c r="T7">
-        <v>338.731</v>
+        <v>337.714</v>
       </c>
       <c r="U7">
-        <v>1.23051</v>
+        <v>0.214148</v>
       </c>
       <c r="V7">
-        <v>79.96899999999999</v>
+        <v>69.8377</v>
       </c>
       <c r="W7">
-        <v>95.5291</v>
+        <v>84.35769999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1178,22 +1161,22 @@
       <c r="S8" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>55</v>
+      <c r="T8">
+        <v>337.774</v>
+      </c>
+      <c r="U8">
+        <v>0.273779</v>
+      </c>
+      <c r="V8">
+        <v>148.511</v>
+      </c>
+      <c r="W8">
+        <v>171.726</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -1249,34 +1232,34 @@
       <c r="S9" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>55</v>
+      <c r="T9">
+        <v>337.774</v>
+      </c>
+      <c r="U9">
+        <v>0.273779</v>
+      </c>
+      <c r="V9">
+        <v>148.511</v>
+      </c>
+      <c r="W9">
+        <v>171.726</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1321,33 +1304,33 @@
         <v>52</v>
       </c>
       <c r="T10">
-        <v>338.676</v>
+        <v>337.762</v>
       </c>
       <c r="U10">
-        <v>1.17635</v>
+        <v>0.261614</v>
       </c>
       <c r="V10">
-        <v>53.1554</v>
+        <v>43.2912</v>
       </c>
       <c r="W10">
-        <v>62.0897</v>
+        <v>51.8942</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -1392,33 +1375,33 @@
         <v>52</v>
       </c>
       <c r="T11">
-        <v>338.676</v>
+        <v>337.762</v>
       </c>
       <c r="U11">
-        <v>1.17635</v>
+        <v>0.261614</v>
       </c>
       <c r="V11">
-        <v>53.1554</v>
+        <v>43.2912</v>
       </c>
       <c r="W11">
-        <v>62.0897</v>
+        <v>51.8942</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -1463,33 +1446,33 @@
         <v>52</v>
       </c>
       <c r="T12">
-        <v>338.728</v>
+        <v>337.662</v>
       </c>
       <c r="U12">
-        <v>1.22802</v>
+        <v>0.162409</v>
       </c>
       <c r="V12">
-        <v>61.3737</v>
+        <v>64.33580000000001</v>
       </c>
       <c r="W12">
-        <v>70.95950000000001</v>
+        <v>74.73099999999999</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1534,33 +1517,33 @@
         <v>52</v>
       </c>
       <c r="T13">
-        <v>338.728</v>
+        <v>337.662</v>
       </c>
       <c r="U13">
-        <v>1.22802</v>
+        <v>0.162409</v>
       </c>
       <c r="V13">
-        <v>61.3737</v>
+        <v>64.33580000000001</v>
       </c>
       <c r="W13">
-        <v>70.95950000000001</v>
+        <v>74.73099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -1605,33 +1588,33 @@
         <v>52</v>
       </c>
       <c r="T14">
-        <v>338.677</v>
+        <v>337.713</v>
       </c>
       <c r="U14">
-        <v>1.17747</v>
+        <v>0.212665</v>
       </c>
       <c r="V14">
-        <v>58.8428</v>
+        <v>54.7123</v>
       </c>
       <c r="W14">
-        <v>73.0885</v>
+        <v>69.7509</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
@@ -1676,33 +1659,33 @@
         <v>52</v>
       </c>
       <c r="T15">
-        <v>338.677</v>
+        <v>337.713</v>
       </c>
       <c r="U15">
-        <v>1.17747</v>
+        <v>0.212665</v>
       </c>
       <c r="V15">
-        <v>58.8428</v>
+        <v>54.7123</v>
       </c>
       <c r="W15">
-        <v>73.0885</v>
+        <v>69.7509</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -1747,33 +1730,33 @@
         <v>52</v>
       </c>
       <c r="T16">
-        <v>338.735</v>
+        <v>337.665</v>
       </c>
       <c r="U16">
-        <v>1.23477</v>
+        <v>0.165297</v>
       </c>
       <c r="V16">
-        <v>118.629</v>
+        <v>86.572</v>
       </c>
       <c r="W16">
-        <v>137.463</v>
+        <v>103.179</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -1818,16 +1801,16 @@
         <v>52</v>
       </c>
       <c r="T17">
-        <v>338.735</v>
+        <v>337.665</v>
       </c>
       <c r="U17">
-        <v>1.23477</v>
+        <v>0.165297</v>
       </c>
       <c r="V17">
-        <v>118.629</v>
+        <v>86.572</v>
       </c>
       <c r="W17">
-        <v>137.463</v>
+        <v>103.179</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
@@ -1903,107 +1886,107 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="S19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T19" s="1">
-        <v>338.676</v>
+        <v>337.662</v>
       </c>
       <c r="U19" s="1">
-        <v>0.716761</v>
+        <v>0.00731984</v>
       </c>
       <c r="V19" s="1">
-        <v>29.1532</v>
+        <v>30.8655</v>
       </c>
       <c r="W19" s="1">
-        <v>35.1</v>
+        <v>36.8308</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="S20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T20" s="1">
-        <v>413.217</v>
+        <v>412.659</v>
       </c>
       <c r="U20" s="1">
-        <v>1.23477</v>
+        <v>0.273779</v>
       </c>
       <c r="V20" s="1">
-        <v>118.629</v>
+        <v>148.511</v>
       </c>
       <c r="W20" s="1">
-        <v>137.463</v>
+        <v>171.726</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="S21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="S22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="S23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="S24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="S25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T25" s="1">
-        <v>359.9973</v>
+        <v>356.432</v>
       </c>
       <c r="U25" s="1">
-        <v>1.068674</v>
+        <v>0.1819742</v>
       </c>
       <c r="V25" s="1">
-        <v>61.53131</v>
+        <v>67.22386</v>
       </c>
       <c r="W25" s="1">
-        <v>72.87174</v>
+        <v>79.94626</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="S26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T26" s="1">
-        <v>33.65911</v>
+        <v>32.418838</v>
       </c>
       <c r="U26" s="1">
-        <v>0.22368</v>
+        <v>0.077831</v>
       </c>
       <c r="V26" s="1">
-        <v>28.649864</v>
+        <v>35.013985</v>
       </c>
       <c r="W26" s="1">
-        <v>32.952343</v>
+        <v>40.060253</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="S27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T27" s="1">
-        <v>9.349823000000001</v>
+        <v>9.095378</v>
       </c>
       <c r="U27" s="1">
-        <v>20.930611</v>
+        <v>42.770349</v>
       </c>
       <c r="V27" s="1">
-        <v>46.56144</v>
+        <v>52.085651</v>
       </c>
       <c r="W27" s="1">
-        <v>45.219646</v>
+        <v>50.108977</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1"/>
